--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -40,60 +40,60 @@
     <t>name</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>fucked</t>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
@@ -115,36 +115,33 @@
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
@@ -154,46 +151,49 @@
     <t>many</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>true</t>
+    <t>documentary</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>twitter</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>watching</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>dilemma</t>
+    <t>…</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
-    <t>…</t>
+    <t>watched</t>
   </si>
   <si>
     <t>’</t>
@@ -626,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>30</v>
@@ -676,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8787878787878788</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C6">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K7">
-        <v>0.7333333333333333</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K8">
-        <v>0.7241379310344828</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K9">
-        <v>0.7222222222222222</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7647058823529411</v>
+        <v>0.8125</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -994,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K10">
-        <v>0.7017543859649122</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6884057971014492</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K11">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.675</v>
+        <v>0.725</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,31 +1094,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>0.6296296296296297</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L12">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>17</v>
-      </c>
-      <c r="M12">
-        <v>17</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6521739130434783</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>40</v>
       </c>
       <c r="K13">
-        <v>0.5833333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>0.5757575757575758</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6170212765957447</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K15">
-        <v>0.3888888888888889</v>
+        <v>0.3078324225865209</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5641025641025641</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>0.3278688524590164</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L16">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>738</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5428571428571428</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>0.2962962962962963</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,13 +1376,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5416666666666666</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,13 +1400,13 @@
         <v>45</v>
       </c>
       <c r="K18">
-        <v>0.2926829268292683</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>0.2923076923076923</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1476,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>0.2711864406779661</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1526,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4642857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K21">
-        <v>0.2295081967213115</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,13 +1576,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2051282051282051</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1594,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K22">
-        <v>0.2210526315789474</v>
+        <v>0.2</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1626,37 +1626,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.05423728813559322</v>
+        <v>0.0584192439862543</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="F23">
-        <v>0.8</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K23">
-        <v>0.2117647058823529</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1676,13 +1676,13 @@
         <v>51</v>
       </c>
       <c r="K24">
-        <v>0.2054794520547945</v>
+        <v>0.09540636042402827</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>58</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1702,13 +1702,13 @@
         <v>52</v>
       </c>
       <c r="K25">
-        <v>0.1830985915492958</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>58</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1728,13 +1728,13 @@
         <v>53</v>
       </c>
       <c r="K26">
-        <v>0.1037037037037037</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="L26">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="M26">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>484</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1754,25 +1754,25 @@
         <v>54</v>
       </c>
       <c r="K27">
-        <v>0.09939759036144578</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="L27">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="M27">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>598</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1780,13 +1780,13 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>0.093841642228739</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1806,13 +1806,13 @@
         <v>56</v>
       </c>
       <c r="K29">
-        <v>0.09187279151943463</v>
+        <v>0.07331378299120235</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>257</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1832,13 +1832,13 @@
         <v>57</v>
       </c>
       <c r="K30">
-        <v>0.07936507936507936</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>290</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1858,25 +1858,25 @@
         <v>58</v>
       </c>
       <c r="K31">
-        <v>0.06178861788617886</v>
+        <v>0.05519480519480519</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1884,25 +1884,25 @@
         <v>59</v>
       </c>
       <c r="K32">
-        <v>0.0594002306805075</v>
+        <v>0.04529616724738676</v>
       </c>
       <c r="L32">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="N32">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O32">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1631</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1910,25 +1910,25 @@
         <v>60</v>
       </c>
       <c r="K33">
-        <v>0.03076923076923077</v>
+        <v>0.03457106274007683</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
